--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF90FC85-E8B6-47F0-AC52-D783E2988654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{571F5070-AF3A-4453-B19A-1B3C6337DF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -51,7 +60,7 @@
     <t>Updated 21/04/2022</t>
   </si>
   <si>
-    <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+    <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ESCAP-World Bank Trade Cost Database</t>
@@ -60,10 +69,10 @@
     <t>United Nations and World Bank</t>
   </si>
   <si>
-    <t>Updated 01/06/2021</t>
-  </si>
-  <si>
-    <t>https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+    <t>Updated 17/05/2022</t>
+  </si>
+  <si>
+    <t>www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>FAOStat online data, Food and Agriculture Organization of the United Nations</t>
@@ -90,6 +99,18 @@
     <t>www.gallup.com/home.aspx</t>
   </si>
   <si>
+    <t>GHG Emissions from fuel combustion (summary) online dataset</t>
+  </si>
+  <si>
+    <t>International Energy Agency (IEA)</t>
+  </si>
+  <si>
+    <t>Retrieved 23/09/2022</t>
+  </si>
+  <si>
+    <t>http://dotstat.oecd.org/Index.aspx?DataSetCode=GHG#</t>
+  </si>
+  <si>
     <t>Global Hunger Index (GHI)</t>
   </si>
   <si>
@@ -114,16 +135,34 @@
     <t>www.gsmaintelligence.com/data/</t>
   </si>
   <si>
+    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+  </si>
+  <si>
+    <t>International Monetary Fund (IMF)</t>
+  </si>
+  <si>
+    <t>Updated 22/11/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
+  </si>
+  <si>
+    <t>IMF Investment and Capital Stock (ICSD)</t>
+  </si>
+  <si>
+    <t>Updated 06/15/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+  </si>
+  <si>
     <t>IMF World Economic Outlook Database</t>
   </si>
   <si>
-    <t>IMF</t>
-  </si>
-  <si>
     <t>October 2022 (October 2019 for some indicators)</t>
   </si>
   <si>
-    <t>www.imf.org/en/Publications/WEO/weo-database/2021/October</t>
+    <t>www.imf.org/en/Publications/WEO/weo-database/2022/October</t>
   </si>
   <si>
     <t>International Labour Organization - ILOSTAT</t>
@@ -132,7 +171,7 @@
     <t>International Labour Organization (ILO)</t>
   </si>
   <si>
-    <t>Retrieved 14/11/2021</t>
+    <t>Retrieved 26/09/2022</t>
   </si>
   <si>
     <t>www.ilo.org/ilostat</t>
@@ -147,7 +186,7 @@
     <t>Retrieved 19/11/2021</t>
   </si>
   <si>
-    <t>https://www.itu.int/net4/itu-d/icteye#/</t>
+    <t>www.itu.int/net4/itu-d/icteye#/</t>
   </si>
   <si>
     <t>ISO Survey of Certifications</t>
@@ -159,7 +198,7 @@
     <t>Updated 06/09/2021</t>
   </si>
   <si>
-    <t>https://www.iso.org/the-iso-survey.html</t>
+    <t>www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee</t>
@@ -168,7 +207,7 @@
     <t>OECD Development Assessment Committee (DAC)</t>
   </si>
   <si>
-    <t>Retrieved 14/09/2021</t>
+    <t>Updated 15/12/2022</t>
   </si>
   <si>
     <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
@@ -213,18 +252,21 @@
     <t>UNCTADStat Online Data Centre, FDI Online Database</t>
   </si>
   <si>
+    <t>Retrieved21/12/2022</t>
+  </si>
+  <si>
+    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
+  </si>
+  <si>
+    <t>UNESCO Institute for Statistics (UIS) Database</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
     <t>Retrieved 17/11/2021</t>
   </si>
   <si>
-    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
-  </si>
-  <si>
-    <t>UNESCO Institute for Statistics (UIS) Database</t>
-  </si>
-  <si>
-    <t>UNESCO</t>
-  </si>
-  <si>
     <t>http://data.uis.unesco.org/Index.aspx</t>
   </si>
   <si>
@@ -243,7 +285,7 @@
     <t>United Nations Statistics Division (UNSD)</t>
   </si>
   <si>
-    <t>Uploaded December 2020</t>
+    <t>Uploaded December 2021</t>
   </si>
   <si>
     <t>https://unstats.un.org/unsd/snaama/</t>
@@ -273,19 +315,22 @@
     <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
   </si>
   <si>
-    <t>World Bank Migration and Remittances Data</t>
-  </si>
-  <si>
-    <t>May, 2021</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
+    <t>Global Knowledge Partnership on Migration and Development (KNOMAD)</t>
+  </si>
+  <si>
+    <t>World Bank-KNOMAD</t>
+  </si>
+  <si>
+    <t>November, 2022</t>
+  </si>
+  <si>
+    <t>www.knomad.org/</t>
   </si>
   <si>
     <t>World Development Indicators</t>
   </si>
   <si>
-    <t>Updated 22/04/2022</t>
+    <t>Updated 20/09/2022</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -306,7 +351,7 @@
     <t>http://worldhappiness.report/</t>
   </si>
   <si>
-    <t>World Population Prospects: the 2019 revision, UN</t>
+    <t>World Population Prospects 2022</t>
   </si>
   <si>
     <t>United Nations, Department of Economic and Social Affairs, Population Division</t>
@@ -315,7 +360,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects: the 2019 revision, UN</t>
+    <t>World Urbanization Prospects 2018</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -333,13 +378,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +413,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -419,7 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,21 +487,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{FDBB731F-0746-46B6-840C-0758A7DEB41B}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -624,7 +652,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{79463476-55E4-4664-91AD-2596CE82A5E5}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -641,95 +669,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output files"/>
-      <sheetName val="Refperiod (Statworks)"/>
-      <sheetName val="Table names (Statworks)"/>
-      <sheetName val="FDI Descriptions"/>
-      <sheetName val="Var descriptions (Statworks)"/>
-      <sheetName val="Indcode conversion"/>
-      <sheetName val="github, bit.ly"/>
-      <sheetName val="Code conversion"/>
-      <sheetName val="Indicators (EN raw data)"/>
-      <sheetName val="Indicateurs (FR raw data)"/>
-      <sheetName val="Indicators trad"/>
-      <sheetName val="IndCodes (Statworks)"/>
-      <sheetName val="AfDD_DDAf_2022_TabInds (CSV)"/>
-      <sheetName val="Variable titles trad"/>
-      <sheetName val="Check IndCodes (EN)"/>
-      <sheetName val="CntryPays (Statworks)"/>
-      <sheetName val="CYC variables"/>
-      <sheetName val="AfDD_DDAf_2022_CntryPays (CSV)"/>
-      <sheetName val="Country groupings trad"/>
-      <sheetName val="Sources (public)"/>
-      <sheetName val="Source trad"/>
-      <sheetName val="Indicators tab"/>
-      <sheetName val="Extracted column headings"/>
-      <sheetName val="Combine extracted &amp; Indicators"/>
-      <sheetName val="From To SW &amp; AfDD_DDAf"/>
-      <sheetName val="IndCode Changes"/>
-      <sheetName val="Top exports by country and year"/>
-      <sheetName val="Sources (private)"/>
-      <sheetName val="WebSites"/>
-      <sheetName val="Names, indicators, metadata, 20"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table363" displayName="Table363" ref="B3:E29" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <sortState ref="B4:D20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F78835C9-96CC-42CB-9531-17D0D05974CA}" name="Table363" displayName="Table363" ref="B3:E32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
     <sortCondition ref="B10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="Sources" dataDxfId="3" dataCellStyle="Comma">
-      <calculatedColumnFormula>[1]!Table36[[#This Row],[Sources]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Organisation" dataDxfId="2">
-      <calculatedColumnFormula>[1]!Table36[[#This Row],[Organisation]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2">
-      <calculatedColumnFormula>[1]!Table36[[#This Row],[Latest update]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="URL" dataDxfId="0">
-      <calculatedColumnFormula>[1]!Table36[[#This Row],[URL]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{31979ECE-3504-4574-BEF5-A5A6A9BE8929}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4F14A453-1602-405C-8AD1-9B8810DA5401}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E81FDF92-43BB-45F8-9ED3-A57A7DC2696B}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{89E2AE86-F4CB-46C3-8AF6-A604E8CF39BA}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,7 +701,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -764,7 +713,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -811,6 +760,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -846,6 +812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,7 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F4BE05-8E90-420F-9C48-D9B410C317E5}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1165,115 +1149,115 @@
         <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>67</v>
@@ -1288,19 +1272,19 @@
         <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>73</v>
@@ -1326,26 +1310,26 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
@@ -1356,113 +1340,148 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2021</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>96</v>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>98</v>
+      <c r="B29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="14" t="s">
-        <v>99</v>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
-        <v>101</v>
+      <c r="B34" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
@@ -1697,10 +1716,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="B31" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
-    <hyperlink ref="B34" r:id="rId2"/>
-    <hyperlink ref="B33" r:id="rId3"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{8CFBD7A1-BC10-42C8-8A1A-756EA8F8EFB9}"/>
+    <hyperlink ref="B34" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F4A9B108-F640-49BF-AC4A-C4CD3EB3A6CA}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{60F312E9-3582-4442-9975-25FB4D8405FA}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{C8431C91-616B-48D2-A67D-243646D4C01F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF90FC85-E8B6-47F0-AC52-D783E2988654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C6731E-5167-4B17-9726-F61DF33D779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{571F5070-AF3A-4453-B19A-1B3C6337DF5A}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{14A464E4-7479-4DD4-99DE-AB6D16C82E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -57,7 +59,7 @@
     <t>Centre d'Etudes Prospectives et d'Informations Internationales (CEPII)</t>
   </si>
   <si>
-    <t>Updated 21/04/2022</t>
+    <t>Updated 01/02/2023</t>
   </si>
   <si>
     <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
@@ -81,7 +83,7 @@
     <t>Food and Agricultural Organization of the United Nations (FAO)</t>
   </si>
   <si>
-    <t>Retrieved 18/11/2021</t>
+    <t>Retrieved 24/10/2022</t>
   </si>
   <si>
     <t>www.fao.org/faostat/en/#data</t>
@@ -123,6 +125,18 @@
     <t>www.globalhungerindex.org/download/all.html</t>
   </si>
   <si>
+    <t>Global Knowledge Partnership on Migration and Development (KNOMAD)</t>
+  </si>
+  <si>
+    <t>World Bank-KNOMAD</t>
+  </si>
+  <si>
+    <t>November, 2022</t>
+  </si>
+  <si>
+    <t>www.knomad.org/</t>
+  </si>
+  <si>
     <t>GSMA Intelligence data</t>
   </si>
   <si>
@@ -189,16 +203,16 @@
     <t>www.itu.int/net4/itu-d/icteye#/</t>
   </si>
   <si>
-    <t>ISO Survey of Certifications</t>
-  </si>
-  <si>
-    <t>International Organization for Standardization</t>
-  </si>
-  <si>
-    <t>Updated 06/09/2021</t>
-  </si>
-  <si>
-    <t>www.iso.org/the-iso-survey.html</t>
+    <t>OECD/GBD dataset on mortality, morbidity and welfare cost from exposure to environment-related risks</t>
+  </si>
+  <si>
+    <t>OECD and Institute for Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>Updated 20/12/2022</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
   </si>
   <si>
     <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee</t>
@@ -213,6 +227,18 @@
     <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
   </si>
   <si>
+    <t>Renewable Energy Statistics 2022</t>
+  </si>
+  <si>
+    <t>International Renewable Energy Agency (IRENA)</t>
+  </si>
+  <si>
+    <t>Retrieved 06/10/2022</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Data</t>
+  </si>
+  <si>
     <t>Social Institutions and Gender Index, OECD Development Centre</t>
   </si>
   <si>
@@ -237,18 +263,6 @@
     <t>https://unctad.org/fr/node/3007</t>
   </si>
   <si>
-    <t>UNCTAD-Eora Global Value Chain (GVC) database</t>
-  </si>
-  <si>
-    <t>UNCTAD and Eora</t>
-  </si>
-  <si>
-    <t>Updated 01/09/2021</t>
-  </si>
-  <si>
-    <t>https://worldmrio.com/unctadgvc/</t>
-  </si>
-  <si>
     <t>UNCTADStat Online Data Centre, FDI Online Database</t>
   </si>
   <si>
@@ -285,82 +299,64 @@
     <t>United Nations Statistics Division (UNSD)</t>
   </si>
   <si>
-    <t>Uploaded December 2021</t>
+    <t>Uploaded January 2023</t>
   </si>
   <si>
     <t>https://unstats.un.org/unsd/snaama/</t>
   </si>
   <si>
-    <t>Wittgenstein Centre Human Capital Data Explorer</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
+    <t>World Bank Enterprise Survey Microdata</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>Retrieved April 2020</t>
+  </si>
+  <si>
+    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
+  </si>
+  <si>
+    <t>World Development Indicators</t>
+  </si>
+  <si>
+    <t>Updated 20/09/2022</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/products/wdi</t>
+  </si>
+  <si>
+    <t>World Development Report 2020 GVC Database (worldbank.org)</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+  </si>
+  <si>
+    <t>World Happiness Report Online Dataset</t>
+  </si>
+  <si>
+    <t>Global Happiness Council (GHC)</t>
+  </si>
+  <si>
+    <t>http://worldhappiness.report/</t>
+  </si>
+  <si>
+    <t>World Population Prospects 2022</t>
+  </si>
+  <si>
+    <t>United Nations, Department of Economic and Social Affairs, Population Division</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>https://population.un.org/wpp/Download/Standard/Population/</t>
+  </si>
+  <si>
+    <t>World Urbanization Prospects 2018</t>
   </si>
   <si>
     <t>2019</t>
-  </si>
-  <si>
-    <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
-  </si>
-  <si>
-    <t>World Bank Enterprise Survey Microdata</t>
-  </si>
-  <si>
-    <t>World Bank</t>
-  </si>
-  <si>
-    <t>Retrieved April 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
-  </si>
-  <si>
-    <t>Global Knowledge Partnership on Migration and Development (KNOMAD)</t>
-  </si>
-  <si>
-    <t>World Bank-KNOMAD</t>
-  </si>
-  <si>
-    <t>November, 2022</t>
-  </si>
-  <si>
-    <t>www.knomad.org/</t>
-  </si>
-  <si>
-    <t>World Development Indicators</t>
-  </si>
-  <si>
-    <t>Updated 20/09/2022</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/products/wdi</t>
-  </si>
-  <si>
-    <t>World Development Report 2020 GVC Database (worldbank.org)</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
-  </si>
-  <si>
-    <t>World Happiness Report Online Dataset</t>
-  </si>
-  <si>
-    <t>Global Happiness Council (GHC)</t>
-  </si>
-  <si>
-    <t>http://worldhappiness.report/</t>
-  </si>
-  <si>
-    <t>World Population Prospects 2022</t>
-  </si>
-  <si>
-    <t>United Nations, Department of Economic and Social Affairs, Population Division</t>
-  </si>
-  <si>
-    <t>https://population.un.org/wpp/Download/Standard/Population/</t>
-  </si>
-  <si>
-    <t>World Urbanization Prospects 2018</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -491,11 +487,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{FDBB731F-0746-46B6-840C-0758A7DEB41B}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{B7F88FCE-6971-441E-8DC3-1AB161040778}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <strike val="0"/>
@@ -577,6 +573,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -618,7 +624,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE1F0DE"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -652,10 +658,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{79463476-55E4-4664-91AD-2596CE82A5E5}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{271A0BA7-0567-478A-B363-D04CCBA913FA}">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -670,15 +676,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F78835C9-96CC-42CB-9531-17D0D05974CA}" name="Table363" displayName="Table363" ref="B3:E32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99245AC7-1717-4948-BD66-CEDE2991B515}" name="Table363" displayName="Table363" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
     <sortCondition ref="B10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{31979ECE-3504-4574-BEF5-A5A6A9BE8929}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4F14A453-1602-405C-8AD1-9B8810DA5401}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{E81FDF92-43BB-45F8-9ED3-A57A7DC2696B}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{89E2AE86-F4CB-46C3-8AF6-A604E8CF39BA}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D2381E81-BCF7-4664-AA8C-46277895D12C}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{47713D50-7D14-4FFB-98E7-538641FFA6A9}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CAE9BC3C-70EB-463D-B1E5-85339B830612}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{32E87CE3-1F0B-4424-A142-ECEF76A09949}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F4BE05-8E90-420F-9C48-D9B410C317E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E772144E-4461-4A9E-B458-358835497565}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E114"/>
   <sheetViews>
@@ -1149,37 +1155,37 @@
         <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -1284,22 +1290,22 @@
         <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>77</v>
@@ -1317,22 +1323,22 @@
         <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>85</v>
@@ -1370,59 +1376,59 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="7" t="s">
-        <v>98</v>
+      <c r="B28" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2021</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>105</v>
@@ -1430,14 +1436,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>108</v>
@@ -1445,43 +1451,31 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-      <c r="B37" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
@@ -1716,10 +1710,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{8CFBD7A1-BC10-42C8-8A1A-756EA8F8EFB9}"/>
-    <hyperlink ref="B34" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F4A9B108-F640-49BF-AC4A-C4CD3EB3A6CA}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{60F312E9-3582-4442-9975-25FB4D8405FA}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{C8431C91-616B-48D2-A67D-243646D4C01F}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{04B78CBF-FD0E-49E8-985A-3516AE31838B}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{06F4F157-EC3F-4275-A54F-115823AA7DFC}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{5B403743-FD34-4B45-B864-1EE76848CD00}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{CB3B05CB-5D6F-4457-8AAC-02ABE34B7DA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C6731E-5167-4B17-9726-F61DF33D779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E473472B-3FD8-4E0E-B10B-55D6BA2915CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{14A464E4-7479-4DD4-99DE-AB6D16C82E14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB44F753-165A-40B2-9E0E-F72950D99228}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{B7F88FCE-6971-441E-8DC3-1AB161040778}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{8068AC92-3094-4B51-8B33-930AB607399F}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -658,7 +658,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{271A0BA7-0567-478A-B363-D04CCBA913FA}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{0CE11F66-1E8E-4738-BC04-C2E15858810B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -676,15 +676,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99245AC7-1717-4948-BD66-CEDE2991B515}" name="Table363" displayName="Table363" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D98B96B1-BC30-4BFE-967B-BD1D19DA5EF9}" name="Table363" displayName="Table363" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
     <sortCondition ref="B10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{D2381E81-BCF7-4664-AA8C-46277895D12C}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{47713D50-7D14-4FFB-98E7-538641FFA6A9}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{CAE9BC3C-70EB-463D-B1E5-85339B830612}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{32E87CE3-1F0B-4424-A142-ECEF76A09949}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E9F2D084-67A5-497E-938D-3C24689F62E9}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{9543A547-CA90-4965-8235-B6BF26DB5532}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AEE75AB9-BFBA-420F-A506-890065C6B523}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{EB0759FE-3100-4183-8501-4732CE590110}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,8 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E772144E-4461-4A9E-B458-358835497565}">
-  <sheetPr codeName="Sheet22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502C8F8-24F3-4240-BE72-516480E477CF}">
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1710,10 +1709,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{04B78CBF-FD0E-49E8-985A-3516AE31838B}"/>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{06F4F157-EC3F-4275-A54F-115823AA7DFC}"/>
-    <hyperlink ref="B36" r:id="rId2" xr:uid="{5B403743-FD34-4B45-B864-1EE76848CD00}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{CB3B05CB-5D6F-4457-8AAC-02ABE34B7DA9}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{109BAC2D-EF07-457F-B8B7-2B6DB3847B08}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{B378C77C-91F2-41F1-A74D-CB5E71641DB8}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{9A4B0434-1AC6-4909-8DED-658749C45299}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{BC8783DE-3BA1-4365-9299-58EA60101D20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E473472B-3FD8-4E0E-B10B-55D6BA2915CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB05D5C9-19BA-4BD3-A01A-7641CA2FD44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB44F753-165A-40B2-9E0E-F72950D99228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2107661C-2405-45C8-8F7E-98E8F1D23E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -65,6 +65,18 @@
     <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
+    <t>Changing Wealth of Nations (CWON) 2021</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>October 27, 2021</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/changing-wealth-of-nations/data</t>
+  </si>
+  <si>
     <t>ESCAP-World Bank Trade Cost Database</t>
   </si>
   <si>
@@ -95,7 +107,7 @@
     <t>The Gallup Organization</t>
   </si>
   <si>
-    <t>Accessed December 15, 2020 (fee required)</t>
+    <t>Accessed 15/12/2020 (fee required)</t>
   </si>
   <si>
     <t>www.gallup.com/home.aspx</t>
@@ -164,7 +176,7 @@
     <t>IMF Investment and Capital Stock (ICSD)</t>
   </si>
   <si>
-    <t>Updated 06/15/2022</t>
+    <t>Updated 20/12/2022</t>
   </si>
   <si>
     <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
@@ -173,19 +185,28 @@
     <t>IMF World Economic Outlook Database</t>
   </si>
   <si>
-    <t>October 2022 (October 2019 for some indicators)</t>
+    <t>April 2023</t>
   </si>
   <si>
     <t>www.imf.org/en/Publications/WEO/weo-database/2022/October</t>
   </si>
   <si>
+    <t>Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497)</t>
+  </si>
+  <si>
+    <t>Centre for Economic Policy Research</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/research/brief/informal-economy-database</t>
+  </si>
+  <si>
     <t>International Labour Organization - ILOSTAT</t>
   </si>
   <si>
     <t>International Labour Organization (ILO)</t>
   </si>
   <si>
-    <t>Retrieved 26/09/2022</t>
+    <t>Retrieved 14/05/2023</t>
   </si>
   <si>
     <t>www.ilo.org/ilostat</t>
@@ -197,10 +218,10 @@
     <t>International Telecommunication Union</t>
   </si>
   <si>
-    <t>Retrieved 19/11/2021</t>
-  </si>
-  <si>
-    <t>www.itu.int/net4/itu-d/icteye#/</t>
+    <t>Retrieved 28/05/2023</t>
+  </si>
+  <si>
+    <t>www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
   </si>
   <si>
     <t>OECD/GBD dataset on mortality, morbidity and welfare cost from exposure to environment-related risks</t>
@@ -209,9 +230,6 @@
     <t>OECD and Institute for Health Metrics and Evaluation</t>
   </si>
   <si>
-    <t>Updated 20/12/2022</t>
-  </si>
-  <si>
     <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
   </si>
   <si>
@@ -221,7 +239,7 @@
     <t>OECD Development Assessment Committee (DAC)</t>
   </si>
   <si>
-    <t>Updated 15/12/2022</t>
+    <t>Updated 11/04/2023</t>
   </si>
   <si>
     <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
@@ -236,16 +254,16 @@
     <t>Retrieved 06/10/2022</t>
   </si>
   <si>
-    <t>https://www.irena.org/Data</t>
-  </si>
-  <si>
-    <t>Social Institutions and Gender Index, OECD Development Centre</t>
+    <t>www.irena.org/Data</t>
+  </si>
+  <si>
+    <t>Social Institutions and Gender Index (SIGI) 2023</t>
   </si>
   <si>
     <t>OECD Development Centre</t>
   </si>
   <si>
-    <t>December, 2019</t>
+    <t>March 2023</t>
   </si>
   <si>
     <t>www.genderindex.org/data/</t>
@@ -263,10 +281,22 @@
     <t>https://unctad.org/fr/node/3007</t>
   </si>
   <si>
+    <t>UNCTAD-Eora Global Value Chain (GVC) database</t>
+  </si>
+  <si>
+    <t>UNCTAD-Eora</t>
+  </si>
+  <si>
+    <t>Accessed 19/11/2022</t>
+  </si>
+  <si>
+    <t>https://worldmrio.com/unctadgvc/</t>
+  </si>
+  <si>
     <t>UNCTADStat Online Data Centre, FDI Online Database</t>
   </si>
   <si>
-    <t>Retrieved21/12/2022</t>
+    <t>Retrieved 21/12/2022</t>
   </si>
   <si>
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
@@ -308,9 +338,6 @@
     <t>World Bank Enterprise Survey Microdata</t>
   </si>
   <si>
-    <t>World Bank</t>
-  </si>
-  <si>
     <t>Retrieved April 2020</t>
   </si>
   <si>
@@ -320,18 +347,12 @@
     <t>World Development Indicators</t>
   </si>
   <si>
-    <t>Updated 20/09/2022</t>
+    <t>Updated 11/05/2023</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
   </si>
   <si>
-    <t>World Development Report 2020 GVC Database (worldbank.org)</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
-  </si>
-  <si>
     <t>World Happiness Report Online Dataset</t>
   </si>
   <si>
@@ -362,7 +383,7 @@
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2023</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
@@ -380,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +430,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -453,7 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -483,11 +511,20 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{8068AC92-3094-4B51-8B33-930AB607399F}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{D81DEFBF-CBB8-4DD3-82EC-37D81190A88F}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -658,7 +695,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{0CE11F66-1E8E-4738-BC04-C2E15858810B}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{FCBE71CB-A09A-462F-AD4D-7F82A3AE6744}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -676,15 +713,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D98B96B1-BC30-4BFE-967B-BD1D19DA5EF9}" name="Table363" displayName="Table363" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2752FF2E-D006-4005-866A-C5EFA9CC49F7}" name="Table363" displayName="Table363" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
     <sortCondition ref="B10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{E9F2D084-67A5-497E-938D-3C24689F62E9}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{9543A547-CA90-4965-8235-B6BF26DB5532}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{AEE75AB9-BFBA-420F-A506-890065C6B523}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{EB0759FE-3100-4183-8501-4732CE590110}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A057CF92-B9F7-4585-892E-2B6A5CB09AF6}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1C63931-FA5B-4FB5-88B8-2665473CC6EB}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E0F522BF-66DA-45B3-AB67-95AA2AA59F49}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{FAF9BE4D-CDD2-42C9-B2D1-82A366522416}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,8 +1023,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502C8F8-24F3-4240-BE72-516480E477CF}">
-  <dimension ref="A1:E114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C049EA-5091-4A8B-A070-9628FA857547}">
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1169,37 +1206,37 @@
         <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>50</v>
@@ -1217,127 +1254,127 @@
         <v>53</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>85</v>
@@ -1349,82 +1386,82 @@
         <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2021</v>
+        <v>11</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>104</v>
@@ -1439,10 +1476,10 @@
         <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2021</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>108</v>
@@ -1450,63 +1487,87 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
@@ -1707,12 +1768,18 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
     </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{109BAC2D-EF07-457F-B8B7-2B6DB3847B08}"/>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{B378C77C-91F2-41F1-A74D-CB5E71641DB8}"/>
-    <hyperlink ref="B36" r:id="rId2" xr:uid="{9A4B0434-1AC6-4909-8DED-658749C45299}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{BC8783DE-3BA1-4365-9299-58EA60101D20}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{79926A65-2F6F-4D18-B7DF-BC8D94F2367B}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{8F542208-C7A5-4F6D-8635-7C62169E80E5}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{E028B9C3-C212-4E26-9EB5-BEFC51BEEE9D}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{FF859F7B-B7D4-41EE-9651-D0B00B9A9B68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB05D5C9-19BA-4BD3-A01A-7641CA2FD44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7778E8BD-9E38-4469-8AFD-6CF84A0DC753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2107661C-2405-45C8-8F7E-98E8F1D23E5D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9A99E988-07FC-42D2-976F-F0A5D97D2295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Welthungerhilfe and Concern Worldwide</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>www.globalhungerindex.org/download/all.html</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
     <t>OECD and Institute for Health Metrics and Evaluation</t>
   </si>
   <si>
+    <t>Updated 20/12/2020</t>
+  </si>
+  <si>
     <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
   </si>
   <si>
@@ -275,9 +275,6 @@
     <t>UNCTAD</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>https://unctad.org/fr/node/3007</t>
   </si>
   <si>
@@ -374,10 +371,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects 2018</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>World Urbanization Prospects 2022</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -524,7 +518,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{D81DEFBF-CBB8-4DD3-82EC-37D81190A88F}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{28902622-CFFD-4CDE-981E-8122859FE873}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -695,7 +689,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{FCBE71CB-A09A-462F-AD4D-7F82A3AE6744}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{15D2B2D7-A5E1-4157-A01E-1BB8D1753AD1}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -713,15 +707,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2752FF2E-D006-4005-866A-C5EFA9CC49F7}" name="Table363" displayName="Table363" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0243FD1E-9DD7-4777-878A-FA9DAE70804C}" name="Table363" displayName="Table363" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
     <sortCondition ref="B10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{A057CF92-B9F7-4585-892E-2B6A5CB09AF6}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{A1C63931-FA5B-4FB5-88B8-2665473CC6EB}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{E0F522BF-66DA-45B3-AB67-95AA2AA59F49}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{FAF9BE4D-CDD2-42C9-B2D1-82A366522416}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A8397D22-501C-4C03-B3B4-A3B5021247A6}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A958FBF7-5213-4FF8-B94F-D887C4D68A5B}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A8104002-8AA4-4B0D-9416-C0FF77BEF1EB}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{C53FAF3D-7FBF-4E1A-B40D-991D823E09C5}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C049EA-5091-4A8B-A070-9628FA857547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F8F316-329B-4439-BFAF-7A4DA6C49BA9}">
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1163,143 +1157,143 @@
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>65</v>
@@ -1358,161 +1352,161 @@
       <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D31" s="8">
         <v>2021</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2018</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1521,7 +1515,7 @@
     <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1531,13 +1525,13 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,10 +1770,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{79926A65-2F6F-4D18-B7DF-BC8D94F2367B}"/>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{8F542208-C7A5-4F6D-8635-7C62169E80E5}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{E028B9C3-C212-4E26-9EB5-BEFC51BEEE9D}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{FF859F7B-B7D4-41EE-9651-D0B00B9A9B68}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{1E2065BC-A986-4897-A4B7-F7A4C4424660}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{47B18234-C3E6-469E-B041-2D3DFE78EF9F}"/>
+    <hyperlink ref="B38" r:id="rId2" xr:uid="{46FAEDC1-A3F5-4717-B5A0-A968FF3EAC37}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{8C336015-9491-4193-8B59-B8F98A8E9681}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7778E8BD-9E38-4469-8AFD-6CF84A0DC753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2824F2CD-DA73-4415-B868-F465B4A70F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9A99E988-07FC-42D2-976F-F0A5D97D2295}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3EEFF36D-4152-4CB8-B6F2-CD1AE0969B63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>List of sources</t>
   </si>
@@ -518,7 +515,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{28902622-CFFD-4CDE-981E-8122859FE873}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{4AABF7BD-B5F9-4A12-B82E-838C58FAFBFD}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -689,7 +686,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{15D2B2D7-A5E1-4157-A01E-1BB8D1753AD1}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{D060D540-2CF6-46EA-9D01-79237F5E70F7}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -707,15 +704,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0243FD1E-9DD7-4777-878A-FA9DAE70804C}" name="Table363" displayName="Table363" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D20">
-    <sortCondition ref="B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{716C42D3-67CD-43BB-8735-BFADB1CA0C23}" name="Table363" displayName="Table363" ref="B2:E32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D19">
+    <sortCondition ref="B9"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{A8397D22-501C-4C03-B3B4-A3B5021247A6}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{A958FBF7-5213-4FF8-B94F-D887C4D68A5B}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{A8104002-8AA4-4B0D-9416-C0FF77BEF1EB}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{C53FAF3D-7FBF-4E1A-B40D-991D823E09C5}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BAA8CC3C-9E38-47D5-90AF-52B68D978956}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{54020F4D-B81C-40BC-B8D4-042B00913E54}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BE24B460-6248-405C-B1C3-3AA09B663D6F}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{1FBFC335-7949-4402-940E-4B0241C9E408}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1017,10 +1014,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F8F316-329B-4439-BFAF-7A4DA6C49BA9}">
-  <dimension ref="A1:E116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C005DE1-D9FF-4BCF-B3D8-0B6EC9CA191B}">
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1031,537 +1030,535 @@
     <col min="5" max="5" width="66.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2021</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2021</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>74</v>
+      <c r="B22" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2020</v>
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2021</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2021</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2021</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2021</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>107</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>110</v>
+      <c r="D32" s="13">
+        <v>2018</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="13">
-        <v>2018</v>
-      </c>
-      <c r="E33" s="12" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
-      <c r="B38" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
@@ -1765,15 +1762,11 @@
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{1E2065BC-A986-4897-A4B7-F7A4C4424660}"/>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{47B18234-C3E6-469E-B041-2D3DFE78EF9F}"/>
-    <hyperlink ref="B38" r:id="rId2" xr:uid="{46FAEDC1-A3F5-4717-B5A0-A968FF3EAC37}"/>
-    <hyperlink ref="B37" r:id="rId3" xr:uid="{8C336015-9491-4193-8B59-B8F98A8E9681}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{4630A0DB-9849-4D9F-A62D-2F292FE69D84}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{FB56FD47-27BC-4078-A3CB-B9F1F4845991}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{EEB3A400-DF39-4340-8027-4371B20DF5EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Annex_Table_Sources.xlsx
+++ b/AfDD_2023_Annex_Table_Sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2824F2CD-DA73-4415-B868-F465B4A70F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E7F85F-CABF-4C32-9214-B06906A8D441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3EEFF36D-4152-4CB8-B6F2-CD1AE0969B63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{3183B4D5-C200-4F1E-8430-D836C2D80C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -137,7 +137,7 @@
     <t>World Bank-KNOMAD</t>
   </si>
   <si>
-    <t>November, 2022</t>
+    <t>June 2023</t>
   </si>
   <si>
     <t>www.knomad.org/</t>
@@ -170,7 +170,7 @@
     <t>IMF Investment and Capital Stock (ICSD)</t>
   </si>
   <si>
-    <t>Updated 20/12/2022</t>
+    <t>Updated 15/06/2022</t>
   </si>
   <si>
     <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
@@ -179,7 +179,7 @@
     <t>IMF World Economic Outlook Database</t>
   </si>
   <si>
-    <t>April 2023</t>
+    <t>October 2023</t>
   </si>
   <si>
     <t>www.imf.org/en/Publications/WEO/weo-database/2022/October</t>
@@ -236,7 +236,7 @@
     <t>OECD Development Assessment Committee (DAC)</t>
   </si>
   <si>
-    <t>Updated 11/04/2023</t>
+    <t>Updated 27/10/2023</t>
   </si>
   <si>
     <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
@@ -290,7 +290,7 @@
     <t>UNCTADStat Online Data Centre, FDI Online Database</t>
   </si>
   <si>
-    <t>Retrieved 21/12/2022</t>
+    <t>Updated 22/09/2022</t>
   </si>
   <si>
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=en</t>
@@ -341,7 +341,7 @@
     <t>World Development Indicators</t>
   </si>
   <si>
-    <t>Updated 11/05/2023</t>
+    <t>Updated 10/10/2023</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -368,7 +368,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects 2022</t>
+    <t>World Urbanization Prospects 2018</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -515,7 +515,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{4AABF7BD-B5F9-4A12-B82E-838C58FAFBFD}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{4EA0293E-FF4E-4062-BF74-2DA91922B8AF}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -686,7 +686,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{D060D540-2CF6-46EA-9D01-79237F5E70F7}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{5CD19AFE-E1D4-4071-9AD2-A007402C0388}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -704,15 +704,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{716C42D3-67CD-43BB-8735-BFADB1CA0C23}" name="Table363" displayName="Table363" ref="B2:E32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D19">
-    <sortCondition ref="B9"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E1630AE-73D0-4721-84B1-5B0C37FED662}" name="Table363" displayName="Table363" ref="B2:E32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B2:E32" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{BAA8CC3C-9E38-47D5-90AF-52B68D978956}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{54020F4D-B81C-40BC-B8D4-042B00913E54}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{BE24B460-6248-405C-B1C3-3AA09B663D6F}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{1FBFC335-7949-4402-940E-4B0241C9E408}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BBBDBACE-0BED-4794-A0B0-333D391FF931}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{357F49B5-96D5-419D-B736-F1333DAFA5A1}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FEFCBB92-8FE8-40D0-88C2-7433094DF818}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{5FA2DE5A-5C81-48F3-B49B-C4927F23958B}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1014,23 +1012,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C005DE1-D9FF-4BCF-B3D8-0B6EC9CA191B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5186BBEC-4E4E-42BB-9DCF-3700FDF84585}">
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1036,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1053,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1068,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -1083,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -1098,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -1113,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
@@ -1128,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>25</v>
@@ -1143,7 +1141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>29</v>
@@ -1158,7 +1156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>36</v>
@@ -1188,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>40</v>
@@ -1203,7 +1201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>44</v>
@@ -1218,7 +1216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>47</v>
@@ -1233,7 +1231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>50</v>
@@ -1248,7 +1246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>53</v>
@@ -1263,7 +1261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
         <v>57</v>
@@ -1278,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>61</v>
@@ -1293,7 +1291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>65</v>
@@ -1308,7 +1306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>69</v>
@@ -1323,7 +1321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>73</v>
@@ -1338,7 +1336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="10" t="s">
         <v>77</v>
@@ -1353,7 +1351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="10" t="s">
         <v>80</v>
@@ -1368,7 +1366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
         <v>84</v>
@@ -1383,7 +1381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="10" t="s">
         <v>87</v>
@@ -1398,7 +1396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
         <v>91</v>
@@ -1413,7 +1411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
         <v>94</v>
@@ -1428,7 +1426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
         <v>98</v>
@@ -1443,7 +1441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
         <v>101</v>
@@ -1458,7 +1456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="10" t="s">
         <v>104</v>
@@ -1473,7 +1471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="11" t="s">
         <v>107</v>
@@ -1488,7 +1486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="11" t="s">
         <v>111</v>
@@ -1503,270 +1501,270 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" xr:uid="{4630A0DB-9849-4D9F-A62D-2F292FE69D84}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{FB56FD47-27BC-4078-A3CB-B9F1F4845991}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{EEB3A400-DF39-4340-8027-4371B20DF5EA}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{3ADDB3F2-8B6E-4911-B4AB-0EF99A121271}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{F18C2E91-2E21-4728-9191-673BEAF2BB0D}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{DE6DA669-E10D-44E0-9CF5-4DF1E1A6802B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
